--- a/StructureDefinition-profile-Appointment.xlsx
+++ b/StructureDefinition-profile-Appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6189857-06:00</t>
+    <t>2026-02-09T22:05:42.9823567-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,33 +428,217 @@
     <t>Appointment.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Appointment.extension:class</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.class|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.class from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
+  </si>
+  <si>
+    <t>Element `Appointment.class` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Appointment.extension:virtualService</t>
+  </si>
+  <si>
+    <t>virtualService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.virtualService|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.virtualService from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Connection details of a virtual service (e.g. conference call).</t>
+  </si>
+  <si>
+    <t>Element `Appointment.virtualService` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+  </si>
+  <si>
+    <t>Appointment.extension:cancellationDate</t>
+  </si>
+  <si>
+    <t>cancellationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.cancellationDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.cancellationDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date/time describing when the appointment was cancelled.</t>
+  </si>
+  <si>
+    <t>Element `Appointment.cancellationDate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+  </si>
+  <si>
+    <t>Appointment.extension:recurrenceId</t>
+  </si>
+  <si>
+    <t>recurrenceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.recurrenceId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The sequence number that identifies a specific appointment in a recurring pattern.</t>
+  </si>
+  <si>
+    <t>Element `Appointment.recurrenceId` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+  </si>
+  <si>
+    <t>Appointment.extension:occurrenceChanged</t>
+  </si>
+  <si>
+    <t>occurrenceChanged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.occurrenceChanged|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.occurrenceChanged from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This appointment varies from the recurring pattern.</t>
+  </si>
+  <si>
+    <t>Element `Appointment.occurrenceChanged` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+  </si>
+  <si>
+    <t>Appointment.extension:recurrenceTemplate</t>
+  </si>
+  <si>
+    <t>recurrenceTemplate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.recurrenceTemplate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The details of the recurrence pattern or template that is used to generate recurring appointments.</t>
+  </si>
+  <si>
+    <t>Element `Appointment.recurrenceTemplate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+  </si>
+  <si>
+    <t>Appointment.extension:replaces</t>
+  </si>
+  <si>
+    <t>replaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.replaces from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Appointment in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.replaces` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Appointment.replaces` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+  </si>
+  <si>
+    <t>Appointment.extension:previousAppointment</t>
+  </si>
+  <si>
+    <t>previousAppointment</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.previousAppointment from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.previousAppointment` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Appointment.previousAppointment` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+  </si>
+  <si>
+    <t>Appointment.extension:originatingAppointment</t>
+  </si>
+  <si>
+    <t>originatingAppointment</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.originatingAppointment from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.originatingAppointment` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Appointment.originatingAppointment` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+  </si>
+  <si>
+    <t>Appointment.extension:account</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.account from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Account in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.account` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Appointment.account` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+  </si>
+  <si>
+    <t>Appointment.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Appointment.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -462,6 +646,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -610,23 +797,16 @@
     <t>Appointment.serviceType.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Appointment.serviceType.extension:serviceType</t>
+  </si>
+  <si>
+    <t>serviceType</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.serviceType|0.0.1-snapshot-3}
@@ -634,6 +814,9 @@
   </si>
   <si>
     <t>Cross-version extension for Appointment.serviceType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Appointment.serviceType` is mapped to FHIR R4 element `Appointment.serviceType`.</t>
   </si>
   <si>
     <t>Appointment.serviceType.coding</t>
@@ -812,6 +995,12 @@
     <t>Appointment.priority.extension</t>
   </si>
   <si>
+    <t>Appointment.priority.extension:priority</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.priority|0.0.1-snapshot-3}
 </t>
   </si>
@@ -819,8 +1008,7 @@
     <t>Cross-version extension for Appointment.priority from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `Appointment.priority` is mapped to FHIR R4 element `Appointment.priority`.</t>
   </si>
   <si>
     <t>Appointment.priority.value</t>
@@ -1013,6 +1201,12 @@
     <t>Appointment.comment.extension</t>
   </si>
   <si>
+    <t>Appointment.comment.extension:note</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.note|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1023,11 +1217,7 @@
     <t>Additional notes/comments about the appointment.</t>
   </si>
   <si>
-    <t>Additional text to aid in facilitating the appointment. For instance, a note might be, "patient should proceed immediately to infusion room upon arrival"--Where this is a planned appointment and the start/end dates are not set then this field can be used to provide additional guidance on the details of the appointment request, including any restrictions on when to book it.--Typically only the concept.text will be used, however occasionally a reference to some generic documentation (or specific) and also supports coded instructions if/when they are required.</t>
+    <t>Element `Appointment.note` is mapped to FHIR R4 element `Appointment.comment`.</t>
   </si>
   <si>
     <t>Appointment.comment.value</t>
@@ -1061,6 +1251,12 @@
   </si>
   <si>
     <t>Appointment.patientInstruction.extension</t>
+  </si>
+  <si>
+    <t>Appointment.patientInstruction.extension:patientInstruction</t>
+  </si>
+  <si>
+    <t>patientInstruction</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.patientInstruction|0.0.1-snapshot-3}
@@ -1073,6 +1269,9 @@
     <t>While Appointment.note contains information for internal use, Appointment.patientInstructions is used to capture patient facing information about the Appointment (e.g. please bring your referral or fast from 8pm night before).</t>
   </si>
   <si>
+    <t>Element `Appointment.patientInstruction` is mapped to FHIR R4 element `Appointment.patientInstruction`.</t>
+  </si>
+  <si>
     <t>Appointment.patientInstruction.value</t>
   </si>
   <si>
@@ -1105,14 +1304,20 @@
     <t>Appointment.basedOn.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.basedOn|0.0.1-snapshot-3}
-</t>
+    <t>Appointment.basedOn.extension:basedOn</t>
+  </si>
+  <si>
+    <t>basedOn</t>
   </si>
   <si>
     <t>Cross-version extension for Appointment.basedOn from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The request this appointment is allocated to assess (e.g. incoming referral or procedure request).</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan,http://hl7.org/fhir/StructureDefinition/DeviceRequest,http://hl7.org/fhir/StructureDefinition/MedicationRequest in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Appointment.basedOn` is mapped to FHIR R4 element `Appointment.basedOn`.</t>
   </si>
   <si>
     <t>Appointment.basedOn.reference</t>
@@ -1228,6 +1433,9 @@
   </si>
   <si>
     <t>Appointment.participant.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1309,17 +1517,20 @@
     <t>Appointment.participant.actor.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.participant.actor|0.0.1-snapshot-3}
-</t>
+    <t>Appointment.participant.actor.extension:actor</t>
+  </si>
+  <si>
+    <t>actor</t>
   </si>
   <si>
     <t>Cross-version extension for Appointment.participant.actor from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The individual, device, location, or service participating in the appointment.</t>
-  </si>
-  <si>
-    <t>Where a CareTeam is provided, this does not imply that the entire team is included, just a single member from the group with the appropriate role. Where multiple members are required, please include the CareTeam the required number of times.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.participant.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Appointment.participant.actor` is mapped to FHIR R4 element `Appointment.participant.actor`.</t>
   </si>
   <si>
     <t>Appointment.participant.actor.reference</t>
@@ -1359,6 +1570,9 @@
   </si>
   <si>
     <t>Appointment.participant.required.extension</t>
+  </si>
+  <si>
+    <t>Appointment.participant.required.extension:required</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.participant.required|0.0.1-snapshot-3}
@@ -1371,7 +1585,7 @@
     <t>Whether this participant is required to be present at the meeting. If false, the participant is optional.</t>
   </si>
   <si>
-    <t>For the use-case where two doctors need to meet to discuss the results for a specific patient, and the patient is not required to be present include the patient in the subject field, but do not include them as a participant - this was formerly done prior to R5 with required='information-only'.</t>
+    <t>Element `Appointment.participant.required` is mapped to FHIR R4 element `Appointment.participant.required`.</t>
   </si>
   <si>
     <t>Appointment.participant.required.value</t>
@@ -1740,7 +1954,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO75"/>
+  <dimension ref="A1:AO85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1749,9 +1963,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.9140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.5546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2740,7 +2954,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2759,17 +2973,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2806,16 +3018,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2836,7 +3046,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2853,11 +3063,13 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2870,26 +3082,24 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2937,7 +3147,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2946,7 +3156,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2955,7 +3165,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2969,12 +3179,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2992,18 +3204,20 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3052,7 +3266,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3061,41 +3275,43 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>89</v>
@@ -3104,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3145,13 +3361,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3169,44 +3385,46 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3224,18 +3442,20 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3260,11 +3480,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3282,25 +3504,25 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3314,12 +3536,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3328,7 +3552,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3337,18 +3561,20 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3373,11 +3599,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3395,7 +3623,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3404,19 +3632,19 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3427,12 +3655,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3450,19 +3680,19 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3488,11 +3718,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3510,7 +3742,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3519,16 +3751,16 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3542,12 +3774,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3556,7 +3790,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3568,15 +3802,17 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3625,25 +3861,25 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3657,22 +3893,24 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3683,15 +3921,17 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3728,19 +3968,19 @@
         <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3772,12 +4012,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3786,7 +4028,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3798,16 +4040,16 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3857,7 +4099,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3889,12 +4131,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3912,23 +4156,21 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3976,7 +4218,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3988,13 +4230,13 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4003,50 +4245,50 @@
         <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4095,25 +4337,25 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4122,15 +4364,15 @@
         <v>78</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4153,13 +4395,13 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4186,11 +4428,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -4208,7 +4452,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4223,27 +4467,27 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4251,7 +4495,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4260,21 +4504,23 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4299,11 +4545,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4321,10 +4569,10 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>89</v>
@@ -4336,27 +4584,27 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4367,7 +4615,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4379,13 +4627,13 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4412,13 +4660,11 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4436,13 +4682,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4451,10 +4697,10 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4463,15 +4709,15 @@
         <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4491,16 +4737,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4527,13 +4773,11 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4551,7 +4795,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4566,13 +4810,13 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4583,10 +4827,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4597,7 +4841,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4606,19 +4850,19 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4644,13 +4888,11 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4668,13 +4910,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4683,27 +4925,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4726,13 +4968,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4783,7 +5025,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4801,7 +5043,7 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4815,10 +5057,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4826,7 +5068,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>80</v>
@@ -4841,13 +5083,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4886,17 +5128,19 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4928,12 +5172,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4942,7 +5188,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4954,16 +5200,16 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5013,7 +5259,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5022,7 +5268,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>140</v>
@@ -5045,10 +5291,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5059,7 +5305,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5068,19 +5314,23 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5128,25 +5378,25 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5155,15 +5405,15 @@
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5183,19 +5433,23 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5243,7 +5497,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5261,24 +5515,24 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5298,16 +5552,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5334,13 +5588,11 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5358,7 +5610,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5373,16 +5625,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5390,10 +5642,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5416,13 +5668,13 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5449,13 +5701,11 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5473,7 +5723,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5488,27 +5738,27 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5519,7 +5769,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5531,13 +5781,13 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5564,13 +5814,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5588,13 +5838,13 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
@@ -5603,27 +5853,27 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5634,7 +5884,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5646,13 +5896,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5703,13 +5953,13 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
@@ -5718,13 +5968,13 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5735,10 +5985,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5749,7 +5999,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5761,15 +6011,17 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5818,13 +6070,13 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
@@ -5833,27 +6085,27 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5876,17 +6128,15 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5935,7 +6185,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5947,16 +6197,16 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -5967,10 +6217,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5981,7 +6231,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5993,17 +6243,15 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>135</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6040,56 +6288,56 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6110,15 +6358,17 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>187</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6167,19 +6417,19 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -6199,10 +6449,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6210,11 +6460,11 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6225,13 +6475,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>193</v>
+        <v>320</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6270,29 +6520,31 @@
         <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -6312,10 +6564,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6326,7 +6578,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6338,17 +6590,15 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>321</v>
+        <v>245</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N40" t="s" s="2">
         <v>324</v>
       </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6397,42 +6647,42 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>197</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6443,7 +6693,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6455,13 +6705,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>187</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6485,58 +6735,58 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="X41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6544,10 +6794,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6567,16 +6817,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6627,7 +6877,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6642,27 +6892,27 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>268</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6682,16 +6932,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>255</v>
+        <v>347</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6742,7 +6992,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>190</v>
+        <v>345</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6754,30 +7004,30 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6785,11 +7035,11 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6800,13 +7050,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>135</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6845,38 +7095,40 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>197</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -6887,10 +7139,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6913,13 +7165,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6970,7 +7222,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>197</v>
+        <v>358</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6979,16 +7231,16 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7002,10 +7254,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7028,15 +7280,17 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>187</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7058,7 +7312,7 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
         <v>78</v>
@@ -7085,7 +7339,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7097,16 +7351,16 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7117,21 +7371,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7143,15 +7397,17 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>245</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7200,13 +7456,13 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -7215,27 +7471,27 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7258,13 +7514,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>189</v>
+        <v>312</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7315,7 +7571,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7333,7 +7589,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7347,10 +7603,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7358,7 +7614,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -7373,13 +7629,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7418,19 +7674,17 @@
         <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7462,12 +7716,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7488,15 +7744,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7545,7 +7803,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7554,7 +7812,7 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>140</v>
@@ -7577,10 +7835,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7600,20 +7858,18 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7635,7 +7891,7 @@
         <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>78</v>
@@ -7662,7 +7918,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7671,16 +7927,16 @@
         <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7694,10 +7950,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7717,20 +7973,18 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7755,13 +8009,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7779,7 +8033,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7797,24 +8051,24 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>132</v>
+        <v>376</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7834,20 +8088,18 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7896,7 +8148,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>370</v>
+        <v>248</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7908,13 +8160,13 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>371</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7928,10 +8180,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7942,7 +8194,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7951,20 +8203,18 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>373</v>
+        <v>135</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8001,37 +8251,35 @@
         <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8045,18 +8293,20 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8071,15 +8321,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8128,42 +8380,42 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>251</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>381</v>
+        <v>140</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8186,13 +8438,13 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>188</v>
+        <v>387</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>189</v>
+        <v>388</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8216,7 +8468,7 @@
         <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="X56" t="s" s="2">
         <v>78</v>
@@ -8243,7 +8495,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8261,7 +8513,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8275,14 +8527,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>134</v>
+        <v>405</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8301,17 +8553,15 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>136</v>
+        <v>407</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8360,7 +8610,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8372,13 +8622,13 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>173</v>
+        <v>410</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8392,46 +8642,42 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>246</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8479,25 +8725,25 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>393</v>
+        <v>248</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8511,10 +8757,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8534,20 +8780,18 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>395</v>
+        <v>135</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8572,31 +8816,31 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>394</v>
+        <v>251</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8608,32 +8852,34 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8651,18 +8897,20 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>403</v>
+        <v>180</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8711,42 +8959,42 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>402</v>
+        <v>251</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8766,18 +9014,20 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>188</v>
+        <v>419</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8826,7 +9076,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>190</v>
+        <v>422</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8835,16 +9085,16 @@
         <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8858,10 +9108,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8869,11 +9119,11 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
       </c>
@@ -8881,18 +9131,20 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>192</v>
+        <v>425</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -8917,49 +9169,49 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>197</v>
+        <v>431</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8973,10 +9225,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8996,19 +9248,19 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9058,25 +9310,25 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>197</v>
+        <v>436</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9090,10 +9342,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9116,16 +9368,16 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9175,7 +9427,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9184,7 +9436,7 @@
         <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>101</v>
@@ -9207,10 +9459,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9218,10 +9470,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9230,20 +9482,18 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>103</v>
+        <v>444</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9268,13 +9518,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9292,42 +9542,42 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>447</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>132</v>
+        <v>449</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9347,20 +9597,18 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>367</v>
+        <v>246</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9409,7 +9657,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>370</v>
+        <v>248</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9421,13 +9669,13 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>371</v>
+        <v>231</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9441,21 +9689,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9464,19 +9712,19 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>373</v>
+        <v>454</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>374</v>
+        <v>455</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>375</v>
+        <v>201</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9526,25 +9774,25 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9558,42 +9806,46 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>78</v>
+        <v>457</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9617,13 +9869,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9641,28 +9893,28 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>425</v>
+        <v>132</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9673,10 +9925,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9687,7 +9939,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9696,18 +9948,20 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>254</v>
+        <v>462</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9732,13 +9986,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9756,42 +10010,42 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>190</v>
+        <v>461</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9799,11 +10053,11 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
       </c>
@@ -9811,16 +10065,16 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>135</v>
+        <v>470</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>192</v>
+        <v>471</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>193</v>
+        <v>472</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9859,52 +10113,54 @@
         <v>78</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AC70" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>197</v>
+        <v>469</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>78</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9927,17 +10183,15 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>429</v>
+        <v>245</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>430</v>
+        <v>246</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -9986,25 +10240,25 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10018,10 +10272,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10032,7 +10286,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10044,13 +10298,13 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>434</v>
+        <v>135</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>434</v>
+        <v>136</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10089,31 +10343,31 @@
         <v>78</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -10133,18 +10387,20 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>89</v>
@@ -10156,18 +10412,20 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10192,13 +10450,13 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>78</v>
@@ -10216,42 +10474,42 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>435</v>
+        <v>251</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10271,18 +10529,20 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>444</v>
+        <v>245</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10331,7 +10591,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10340,7 +10600,7 @@
         <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>101</v>
@@ -10349,7 +10609,7 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10363,10 +10623,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10377,7 +10637,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10386,19 +10646,19 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>444</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10424,13 +10684,13 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10448,13 +10708,13 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
@@ -10463,10 +10723,10 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>451</v>
+        <v>132</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10475,7 +10735,1165 @@
         <v>78</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC80" s="2"/>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-Appointment.xlsx
+++ b/StructureDefinition-profile-Appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="505">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:42.9823567-06:00</t>
+    <t>2026-02-17T14:42:26.7268768-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -468,7 +468,7 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>Element `Appointment.class` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.class` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -491,7 +491,7 @@
     <t>Connection details of a virtual service (e.g. conference call).</t>
   </si>
   <si>
-    <t>Element `Appointment.virtualService` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.virtualService` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Appointment.extension:cancellationDate</t>
@@ -510,7 +510,7 @@
     <t>The date/time describing when the appointment was cancelled.</t>
   </si>
   <si>
-    <t>Element `Appointment.cancellationDate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.cancellationDate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Appointment.extension:recurrenceId</t>
@@ -529,7 +529,7 @@
     <t>The sequence number that identifies a specific appointment in a recurring pattern.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceId` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceId` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Appointment.extension:occurrenceChanged</t>
@@ -548,7 +548,7 @@
     <t>This appointment varies from the recurring pattern.</t>
   </si>
   <si>
-    <t>Element `Appointment.occurrenceChanged` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.occurrenceChanged` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Appointment.extension:recurrenceTemplate</t>
@@ -567,7 +567,7 @@
     <t>The details of the recurrence pattern or template that is used to generate recurring appointments.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Appointment.extension:replaces</t>
@@ -587,7 +587,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.replaces` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Appointment.replaces` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.replaces` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Appointment.extension:previousAppointment</t>
@@ -600,7 +600,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.previousAppointment` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Appointment.previousAppointment` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.previousAppointment` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Appointment.extension:originatingAppointment</t>
@@ -613,7 +613,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.originatingAppointment` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Appointment.originatingAppointment` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.originatingAppointment` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Appointment.extension:account</t>
@@ -629,7 +629,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.account` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Appointment.account` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.account` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Appointment.modifierExtension</t>
@@ -816,7 +816,7 @@
     <t>Cross-version extension for Appointment.serviceType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Appointment.serviceType` is mapped to FHIR R4 element `Appointment.serviceType`.</t>
+    <t>Element `Appointment.serviceType` has is mapped to FHIR R4 element `Appointment.serviceType`, but has no comparisons.</t>
   </si>
   <si>
     <t>Appointment.serviceType.coding</t>
@@ -1008,7 +1008,7 @@
     <t>Cross-version extension for Appointment.priority from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Appointment.priority` is mapped to FHIR R4 element `Appointment.priority`.</t>
+    <t>Element `Appointment.priority` has is mapped to FHIR R4 element `Appointment.priority`, but has no comparisons.</t>
   </si>
   <si>
     <t>Appointment.priority.value</t>
@@ -1217,7 +1217,7 @@
     <t>Additional notes/comments about the appointment.</t>
   </si>
   <si>
-    <t>Element `Appointment.note` is mapped to FHIR R4 element `Appointment.comment`.</t>
+    <t>Element `Appointment.note` has is mapped to FHIR R4 element `Appointment.comment`, but has no comparisons.</t>
   </si>
   <si>
     <t>Appointment.comment.value</t>
@@ -1269,7 +1269,7 @@
     <t>While Appointment.note contains information for internal use, Appointment.patientInstructions is used to capture patient facing information about the Appointment (e.g. please bring your referral or fast from 8pm night before).</t>
   </si>
   <si>
-    <t>Element `Appointment.patientInstruction` is mapped to FHIR R4 element `Appointment.patientInstruction`.</t>
+    <t>Element `Appointment.patientInstruction` has is mapped to FHIR R4 element `Appointment.patientInstruction`, but has no comparisons.</t>
   </si>
   <si>
     <t>Appointment.patientInstruction.value</t>
@@ -1317,7 +1317,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Appointment.basedOn` is mapped to FHIR R4 element `Appointment.basedOn`.</t>
+Element `Appointment.basedOn` has is mapped to FHIR R4 element `Appointment.basedOn`, but has no comparisons.</t>
   </si>
   <si>
     <t>Appointment.basedOn.reference</t>
@@ -1435,10 +1435,20 @@
     <t>Appointment.participant.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Appointment.participant.extension:participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.participant|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.participant from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Appointment.participant` has is mapped to FHIR R4 element `Appointment.participant`, but has no comparisons.</t>
   </si>
   <si>
     <t>Appointment.participant.modifierExtension</t>
@@ -1511,40 +1521,6 @@
     <t>PID-3-Patient ID List | AIL-3 | AIG-3 | AIP-3</t>
   </si>
   <si>
-    <t>Appointment.participant.actor.id</t>
-  </si>
-  <si>
-    <t>Appointment.participant.actor.extension</t>
-  </si>
-  <si>
-    <t>Appointment.participant.actor.extension:actor</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Appointment.participant.actor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.participant.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Appointment.participant.actor` is mapped to FHIR R4 element `Appointment.participant.actor`.</t>
-  </si>
-  <si>
-    <t>Appointment.participant.actor.reference</t>
-  </si>
-  <si>
-    <t>Appointment.participant.actor.type</t>
-  </si>
-  <si>
-    <t>Appointment.participant.actor.identifier</t>
-  </si>
-  <si>
-    <t>Appointment.participant.actor.display</t>
-  </si>
-  <si>
     <t>Appointment.participant.required</t>
   </si>
   <si>
@@ -1564,34 +1540,6 @@
   </si>
   <si>
     <t>ROLE=REQ-PARTICIPANT (roleparam)</t>
-  </si>
-  <si>
-    <t>Appointment.participant.required.id</t>
-  </si>
-  <si>
-    <t>Appointment.participant.required.extension</t>
-  </si>
-  <si>
-    <t>Appointment.participant.required.extension:required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.participant.required|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Appointment.participant.required from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Whether this participant is required to be present at the meeting. If false, the participant is optional.</t>
-  </si>
-  <si>
-    <t>Element `Appointment.participant.required` is mapped to FHIR R4 element `Appointment.participant.required`.</t>
-  </si>
-  <si>
-    <t>Appointment.participant.required.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
   </si>
   <si>
     <t>Appointment.participant.status</t>
@@ -1954,7 +1902,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:AO75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1964,7 +1912,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.9140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.5546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.96484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -9696,11 +9644,11 @@
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9718,14 +9666,12 @@
         <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>454</v>
+        <v>135</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9762,16 +9708,14 @@
         <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>251</v>
@@ -9792,7 +9736,7 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9806,18 +9750,20 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="D68" t="s" s="2">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -9826,26 +9772,24 @@
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>134</v>
+        <v>456</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9893,7 +9837,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>460</v>
+        <v>251</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9902,7 +9846,7 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>140</v>
@@ -9911,7 +9855,7 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -9925,14 +9869,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9945,24 +9889,26 @@
         <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9986,13 +9932,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>465</v>
+        <v>78</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -10010,7 +9956,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10022,30 +9968,30 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>467</v>
+        <v>132</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>468</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10056,7 +10002,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10068,15 +10014,17 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>470</v>
+        <v>226</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10101,13 +10049,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10125,13 +10073,13 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
@@ -10143,24 +10091,24 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>474</v>
+        <v>231</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10180,16 +10128,16 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>245</v>
+        <v>473</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>246</v>
+        <v>474</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>247</v>
+        <v>475</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10240,7 +10188,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>248</v>
+        <v>472</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10252,30 +10200,30 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>231</v>
+        <v>476</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>78</v>
+        <v>477</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>78</v>
+        <v>478</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>78</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10286,7 +10234,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10295,16 +10243,16 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>135</v>
+        <v>481</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>136</v>
+        <v>482</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10331,52 +10279,52 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>251</v>
+        <v>480</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10387,20 +10335,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>89</v>
@@ -10412,20 +10358,18 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10450,13 +10394,13 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>78</v>
@@ -10474,42 +10418,42 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>251</v>
+        <v>487</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>78</v>
+        <v>493</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>78</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10529,20 +10473,18 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>245</v>
+        <v>496</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>419</v>
+        <v>497</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10591,7 +10533,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>422</v>
+        <v>495</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10600,7 +10542,7 @@
         <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>101</v>
@@ -10609,7 +10551,7 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10623,10 +10565,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10637,7 +10579,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10646,19 +10588,19 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>103</v>
+        <v>496</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>426</v>
+        <v>501</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10684,13 +10626,13 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10708,13 +10650,13 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
@@ -10723,10 +10665,10 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>132</v>
+        <v>503</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10735,1165 +10677,7 @@
         <v>78</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC80" s="2"/>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="D81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-Appointment.xlsx
+++ b/StructureDefinition-profile-Appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="510">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7268768-06:00</t>
+    <t>2026-02-20T11:59:20.7275878-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Appointment|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Appointment</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>class</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.class|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.class}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.virtualService|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.virtualService}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>cancellationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.cancellationDate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.cancellationDate}
 </t>
   </si>
   <si>
@@ -519,7 +519,7 @@
     <t>recurrenceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceId|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceId}
 </t>
   </si>
   <si>
@@ -538,7 +538,7 @@
     <t>occurrenceChanged</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.occurrenceChanged|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.occurrenceChanged}
 </t>
   </si>
   <si>
@@ -557,7 +557,7 @@
     <t>recurrenceTemplate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate}
 </t>
   </si>
   <si>
@@ -576,7 +576,7 @@
     <t>replaces</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -632,6 +632,22 @@
 Element `Appointment.account` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
+    <t>Appointment.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/Patient in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Appointment.subject` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+  </si>
+  <si>
     <t>Appointment.modifierExtension</t>
   </si>
   <si>
@@ -809,7 +825,7 @@
     <t>serviceType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.serviceType|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.serviceType}
 </t>
   </si>
   <si>
@@ -898,7 +914,7 @@
     <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
   </si>
   <si>
     <t>.code</t>
@@ -1001,7 +1017,7 @@
     <t>priority</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.priority|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.priority}
 </t>
   </si>
   <si>
@@ -1207,7 +1223,7 @@
     <t>note</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.note|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.note}
 </t>
   </si>
   <si>
@@ -1259,7 +1275,7 @@
     <t>patientInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.patientInstruction|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.patientInstruction}
 </t>
   </si>
   <si>
@@ -1441,7 +1457,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.participant|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.participant}
 </t>
   </si>
   <si>
@@ -1902,7 +1918,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO75"/>
+  <dimension ref="A1:AO76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4201,30 +4217,32 @@
         <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>199</v>
@@ -4235,9 +4253,7 @@
       <c r="N20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="O20" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4285,7 +4301,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4303,7 +4319,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4317,14 +4333,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4337,22 +4353,26 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4400,7 +4420,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4412,30 +4432,30 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4443,32 +4463,30 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4493,13 +4511,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4517,13 +4535,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -4532,27 +4550,27 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4560,7 +4578,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -4569,21 +4587,23 @@
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4608,11 +4628,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4630,10 +4652,10 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>89</v>
@@ -4645,27 +4667,27 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4676,7 +4698,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4688,13 +4710,13 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4721,7 +4743,7 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
@@ -4743,13 +4765,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4764,7 +4786,7 @@
         <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4775,10 +4797,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4801,17 +4823,15 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4836,11 +4856,11 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4858,7 +4878,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4873,13 +4893,13 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4890,10 +4910,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4904,7 +4924,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4913,18 +4933,20 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4949,13 +4971,11 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4973,25 +4993,25 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL26" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -5019,7 +5039,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -5031,13 +5051,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5076,37 +5096,37 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5120,14 +5140,12 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5148,17 +5166,15 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>135</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5195,19 +5211,19 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5242,9 +5258,11 @@
         <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5262,23 +5280,21 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="O29" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5326,7 +5342,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5338,13 +5354,13 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5353,15 +5369,15 @@
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5372,7 +5388,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5384,19 +5400,19 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5445,13 +5461,13 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -5463,7 +5479,7 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5472,15 +5488,15 @@
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5491,7 +5507,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5503,16 +5519,20 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5536,11 +5556,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5558,13 +5580,13 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
@@ -5576,24 +5598,24 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5604,7 +5626,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5616,13 +5638,13 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5653,7 +5675,7 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5671,13 +5693,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -5689,24 +5711,24 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO32" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5717,7 +5739,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5729,13 +5751,13 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5764,11 +5786,9 @@
       <c r="X33" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>290</v>
-      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5786,13 +5806,13 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
@@ -5801,27 +5821,27 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5841,16 +5861,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5877,13 +5897,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5901,7 +5921,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5916,27 +5936,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5947,7 +5967,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5959,17 +5979,15 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6018,13 +6036,13 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
@@ -6033,27 +6051,27 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6076,15 +6094,17 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6133,7 +6153,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6145,30 +6165,30 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6179,7 +6199,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6191,13 +6211,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>135</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6236,29 +6256,31 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6278,14 +6300,12 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6294,7 +6314,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6306,17 +6326,15 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6353,19 +6371,17 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6374,7 +6390,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>140</v>
@@ -6400,9 +6416,11 @@
         <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6423,15 +6441,17 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6480,19 +6500,19 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>256</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -6512,10 +6532,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6538,13 +6558,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6595,7 +6615,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6607,30 +6627,30 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6641,7 +6661,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6653,13 +6673,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6710,13 +6730,13 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -6725,27 +6745,27 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6756,7 +6776,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6765,16 +6785,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6825,13 +6845,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6840,27 +6860,27 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AO42" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6883,13 +6903,13 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6940,7 +6960,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6955,27 +6975,27 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6995,16 +7015,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7055,7 +7075,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7070,27 +7090,27 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7101,7 +7121,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7113,13 +7133,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7170,13 +7190,13 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
@@ -7185,13 +7205,13 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7216,7 +7236,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7236,9 +7256,7 @@
       <c r="M46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>367</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7293,7 +7311,7 @@
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -7302,13 +7320,13 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7319,10 +7337,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7345,16 +7363,16 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>245</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7404,7 +7422,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7419,27 +7437,27 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7462,15 +7480,17 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7519,7 +7539,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7531,30 +7551,30 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7565,7 +7585,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7577,13 +7597,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>135</v>
+        <v>316</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7622,29 +7642,31 @@
         <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -7664,14 +7686,12 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7692,17 +7712,15 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>135</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7739,19 +7757,17 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7760,7 +7776,7 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>140</v>
@@ -7783,12 +7799,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7797,7 +7815,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7809,15 +7827,17 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>245</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7839,7 +7859,7 @@
         <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>78</v>
@@ -7866,19 +7886,19 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>390</v>
+        <v>256</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -7924,7 +7944,7 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>392</v>
@@ -7954,7 +7974,7 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>78</v>
@@ -7981,7 +8001,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7993,30 +8013,30 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8039,13 +8059,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8096,7 +8116,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>248</v>
+        <v>396</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8108,30 +8128,30 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8142,7 +8162,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8154,13 +8174,13 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>135</v>
+        <v>316</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8199,29 +8219,31 @@
         <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC54" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8241,14 +8263,12 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8269,17 +8289,15 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>399</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8316,19 +8334,17 @@
         <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8337,7 +8353,7 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>140</v>
@@ -8360,12 +8376,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="B56" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8374,7 +8392,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8386,15 +8404,17 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>245</v>
+        <v>404</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8416,7 +8436,7 @@
         <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
         <v>78</v>
@@ -8443,19 +8463,19 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>390</v>
+        <v>256</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8475,21 +8495,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>405</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8501,13 +8521,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>406</v>
+        <v>250</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8531,7 +8551,7 @@
         <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="X57" t="s" s="2">
         <v>78</v>
@@ -8558,25 +8578,25 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8590,21 +8610,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8616,13 +8636,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>245</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>246</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>247</v>
+        <v>413</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8673,25 +8693,25 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>248</v>
+        <v>409</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>231</v>
+        <v>415</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8705,10 +8725,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8719,7 +8739,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8731,13 +8751,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8776,37 +8796,37 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8820,14 +8840,12 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8836,7 +8854,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8848,17 +8866,15 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>415</v>
+        <v>135</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8895,19 +8911,19 @@
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8942,9 +8958,11 @@
         <v>418</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8962,19 +8980,19 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9024,25 +9042,25 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>422</v>
+        <v>256</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -9056,10 +9074,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9082,16 +9100,16 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9117,13 +9135,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9141,7 +9159,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9150,7 +9168,7 @@
         <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>101</v>
@@ -9173,10 +9191,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9199,16 +9217,16 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9234,13 +9252,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>435</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9276,7 +9294,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>437</v>
+        <v>132</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9290,10 +9308,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9316,16 +9334,16 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9375,7 +9393,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9393,7 +9411,7 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>132</v>
+        <v>442</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9418,11 +9436,11 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9430,18 +9448,20 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9490,42 +9510,42 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH65" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>447</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>449</v>
+        <v>132</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9533,10 +9553,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9548,13 +9568,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>245</v>
+        <v>449</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>246</v>
+        <v>450</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>247</v>
+        <v>451</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9605,42 +9625,42 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>248</v>
+        <v>448</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>231</v>
+        <v>454</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>78</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9648,11 +9668,11 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9663,13 +9683,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9708,35 +9728,37 @@
         <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9750,14 +9772,12 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9778,17 +9798,15 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>456</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>457</v>
+        <v>135</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9825,19 +9843,17 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9846,7 +9862,7 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>140</v>
@@ -9872,15 +9888,17 @@
         <v>459</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="D69" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -9889,26 +9907,24 @@
         <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>134</v>
+        <v>461</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9956,7 +9972,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>463</v>
+        <v>256</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9965,7 +9981,7 @@
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>140</v>
@@ -9974,7 +9990,7 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9995,7 +10011,7 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10008,24 +10024,26 @@
         <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10049,31 +10067,31 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10085,30 +10103,30 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>470</v>
+        <v>132</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10119,7 +10137,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -10131,15 +10149,17 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>473</v>
+        <v>231</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10164,13 +10184,13 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -10188,13 +10208,13 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
@@ -10206,24 +10226,24 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10246,13 +10266,13 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>109</v>
+        <v>478</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10279,13 +10299,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>484</v>
+        <v>78</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10303,7 +10323,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10321,24 +10341,24 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10346,7 +10366,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>89</v>
@@ -10364,10 +10384,10 @@
         <v>109</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10394,13 +10414,13 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>78</v>
@@ -10418,10 +10438,10 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>89</v>
@@ -10436,24 +10456,24 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>494</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10461,7 +10481,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>89</v>
@@ -10473,16 +10493,16 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>496</v>
+        <v>109</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10509,13 +10529,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10533,10 +10553,10 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>89</v>
@@ -10551,24 +10571,24 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>231</v>
+        <v>497</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>78</v>
+        <v>498</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>78</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10579,7 +10599,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10591,17 +10611,15 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10650,13 +10668,13 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
@@ -10665,10 +10683,10 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>503</v>
+        <v>236</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10677,7 +10695,124 @@
         <v>78</v>
       </c>
       <c r="AO75" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
         <v>504</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-Appointment.xlsx
+++ b/StructureDefinition-profile-Appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7275878-06:00</t>
+    <t>2026-02-21T13:36:54.1264125-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Appointment</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Appointment|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>class</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.class}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.class|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.virtualService}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.virtualService|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>cancellationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.cancellationDate}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.cancellationDate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -519,7 +519,7 @@
     <t>recurrenceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceId}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceId|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -538,7 +538,7 @@
     <t>occurrenceChanged</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.occurrenceChanged}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.occurrenceChanged|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -557,7 +557,7 @@
     <t>recurrenceTemplate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -568,84 +568,6 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
-  </si>
-  <si>
-    <t>Appointment.extension:replaces</t>
-  </si>
-  <si>
-    <t>replaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Appointment.replaces from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Appointment in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.replaces` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Appointment.replaces` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
-  </si>
-  <si>
-    <t>Appointment.extension:previousAppointment</t>
-  </si>
-  <si>
-    <t>previousAppointment</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Appointment.previousAppointment from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.previousAppointment` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Appointment.previousAppointment` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
-  </si>
-  <si>
-    <t>Appointment.extension:originatingAppointment</t>
-  </si>
-  <si>
-    <t>originatingAppointment</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Appointment.originatingAppointment from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.originatingAppointment` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Appointment.originatingAppointment` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
-  </si>
-  <si>
-    <t>Appointment.extension:account</t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Appointment.account from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Account in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.account` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Appointment.account` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
-  </si>
-  <si>
-    <t>Appointment.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Appointment.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/Patient in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Appointment.subject` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Appointment.modifierExtension</t>
@@ -825,14 +747,14 @@
     <t>serviceType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.serviceType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.serviceType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Appointment.serviceType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Appointment.serviceType` has is mapped to FHIR R4 element `Appointment.serviceType`, but has no comparisons.</t>
+    <t>Element `Appointment.serviceType` is mapped to FHIR R4 element `Appointment.serviceType` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Appointment.serviceType.coding</t>
@@ -914,7 +836,7 @@
     <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276|2.0.0</t>
   </si>
   <si>
     <t>.code</t>
@@ -1017,14 +939,14 @@
     <t>priority</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.priority}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.priority|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Appointment.priority from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Appointment.priority` has is mapped to FHIR R4 element `Appointment.priority`, but has no comparisons.</t>
+    <t>Element `Appointment.priority` is mapped to FHIR R4 element `Appointment.priority` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Appointment.priority.value</t>
@@ -1223,7 +1145,7 @@
     <t>note</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.note}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.note|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1233,7 +1155,7 @@
     <t>Additional notes/comments about the appointment.</t>
   </si>
   <si>
-    <t>Element `Appointment.note` has is mapped to FHIR R4 element `Appointment.comment`, but has no comparisons.</t>
+    <t>Element `Appointment.note` is mapped to FHIR R4 element `Appointment.comment` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Appointment.comment.value</t>
@@ -1275,7 +1197,7 @@
     <t>patientInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.patientInstruction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.patientInstruction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1285,7 +1207,7 @@
     <t>While Appointment.note contains information for internal use, Appointment.patientInstructions is used to capture patient facing information about the Appointment (e.g. please bring your referral or fast from 8pm night before).</t>
   </si>
   <si>
-    <t>Element `Appointment.patientInstruction` has is mapped to FHIR R4 element `Appointment.patientInstruction`, but has no comparisons.</t>
+    <t>Element `Appointment.patientInstruction` is mapped to FHIR R4 element `Appointment.patientInstruction` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Appointment.patientInstruction.value</t>
@@ -1314,108 +1236,6 @@
     <t>.outboundRelationship[@typeCode = 'FLFS'].act[@classCode &lt; 'ActCareProvisionRequestType'][@moodCode = 'RQO']</t>
   </si>
   <si>
-    <t>Appointment.basedOn.id</t>
-  </si>
-  <si>
-    <t>Appointment.basedOn.extension</t>
-  </si>
-  <si>
-    <t>Appointment.basedOn.extension:basedOn</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Appointment.basedOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan,http://hl7.org/fhir/StructureDefinition/DeviceRequest,http://hl7.org/fhir/StructureDefinition/MedicationRequest in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Appointment.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Appointment.basedOn` has is mapped to FHIR R4 element `Appointment.basedOn`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Appointment.basedOn.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Appointment.basedOn.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Appointment.basedOn.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Appointment.basedOn.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>Appointment.participant</t>
   </si>
   <si>
@@ -1451,20 +1271,10 @@
     <t>Appointment.participant.extension</t>
   </si>
   <si>
-    <t>Appointment.participant.extension:participant</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.participant}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Appointment.participant from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Appointment.participant` has is mapped to FHIR R4 element `Appointment.participant`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Appointment.participant.modifierExtension</t>
@@ -1500,6 +1310,9 @@
 This value SHALL be the same when creating an AppointmentResponse so that they can be matched, and subsequently update the Appointment.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Role of participant in encounter.</t>
   </si>
   <si>
@@ -1556,6 +1369,34 @@
   </si>
   <si>
     <t>ROLE=REQ-PARTICIPANT (roleparam)</t>
+  </si>
+  <si>
+    <t>Appointment.participant.required.id</t>
+  </si>
+  <si>
+    <t>Appointment.participant.required.extension</t>
+  </si>
+  <si>
+    <t>Appointment.participant.required.extension:required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.participant.required|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Appointment.participant.required from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Whether this participant is required to be present at the meeting. If false, the participant is optional.</t>
+  </si>
+  <si>
+    <t>Element `Appointment.participant.required` is mapped to FHIR R4 element `Appointment.participant.required` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>Appointment.participant.required.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
   </si>
   <si>
     <t>Appointment.participant.status</t>
@@ -1918,7 +1759,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO76"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1928,8 +1769,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.9140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.96484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="36.5546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.27734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1951,7 +1792,7 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.30078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="55.88671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
@@ -3741,13 +3582,11 @@
         <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3760,24 +3599,26 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3825,7 +3666,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3843,7 +3684,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3857,14 +3698,12 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C17" t="s" s="2">
         <v>185</v>
       </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3873,7 +3712,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3882,20 +3721,18 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3944,7 +3781,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3956,40 +3793,38 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
@@ -3998,22 +3833,22 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4039,13 +3874,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -4063,46 +3898,44 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4111,7 +3944,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -4120,20 +3953,18 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4158,13 +3989,11 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -4182,25 +4011,25 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4214,14 +4043,12 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4230,7 +4057,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4239,20 +4066,18 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4277,13 +4102,11 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -4301,7 +4124,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4313,16 +4136,16 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4333,14 +4156,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4353,26 +4176,24 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4396,13 +4217,11 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -4420,7 +4239,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4432,13 +4251,13 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4452,10 +4271,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4466,7 +4285,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4475,16 +4294,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4535,42 +4354,42 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4578,32 +4397,30 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4628,68 +4445,70 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4698,7 +4517,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4707,18 +4526,20 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4743,11 +4564,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4765,25 +4588,25 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4797,10 +4620,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4823,16 +4646,20 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4856,11 +4683,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4878,7 +4707,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4896,24 +4725,24 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4924,7 +4753,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4936,18 +4765,20 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4971,11 +4802,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4993,13 +4826,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -5008,10 +4841,10 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -5020,15 +4853,15 @@
         <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5039,7 +4872,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -5048,16 +4881,16 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5084,13 +4917,11 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5108,31 +4939,31 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5140,10 +4971,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5154,7 +4985,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5163,16 +4994,16 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5199,70 +5030,66 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5280,20 +5107,18 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5318,13 +5143,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5342,7 +5167,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5354,13 +5179,13 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5369,15 +5194,15 @@
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5397,23 +5222,19 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5461,7 +5282,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5476,10 +5297,10 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5488,15 +5309,15 @@
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5516,23 +5337,21 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5580,7 +5399,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5595,27 +5414,27 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5626,7 +5445,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5635,16 +5454,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5671,11 +5490,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5693,31 +5514,31 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5725,10 +5546,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5739,7 +5560,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5748,16 +5569,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5784,66 +5605,68 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5852,7 +5675,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5861,18 +5684,20 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5897,13 +5722,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5921,7 +5746,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5930,16 +5755,16 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5948,7 +5773,7 @@
         <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -5967,7 +5792,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5979,13 +5804,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6036,25 +5861,25 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -6068,10 +5893,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6094,17 +5919,15 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6153,7 +5976,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6168,27 +5991,27 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6199,7 +6022,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6211,13 +6034,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6268,31 +6091,31 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6300,10 +6123,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6314,7 +6137,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6323,16 +6146,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>136</v>
+        <v>320</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6371,56 +6194,56 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6438,20 +6261,18 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6500,42 +6321,42 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6558,13 +6379,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6615,7 +6436,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6627,16 +6448,16 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6647,10 +6468,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6661,7 +6482,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6673,13 +6494,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6730,13 +6551,13 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -6748,24 +6569,24 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6776,7 +6597,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6788,15 +6609,17 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6845,13 +6668,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6860,16 +6683,16 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6877,10 +6700,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6900,18 +6723,20 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6960,7 +6785,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6975,27 +6800,27 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>349</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7015,16 +6840,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>352</v>
+        <v>293</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7075,7 +6900,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7087,30 +6912,30 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7121,7 +6946,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7133,13 +6958,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>360</v>
+        <v>136</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7178,40 +7003,38 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7222,12 +7045,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7248,15 +7073,17 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7305,7 +7132,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7314,16 +7141,16 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7337,10 +7164,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7363,17 +7190,15 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>372</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7395,7 +7220,7 @@
         <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>78</v>
@@ -7422,7 +7247,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7434,16 +7259,16 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7454,10 +7279,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7480,17 +7305,15 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7539,7 +7362,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7554,27 +7377,27 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7597,13 +7420,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7654,7 +7477,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7686,10 +7509,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7767,7 +7590,7 @@
         <v>138</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7799,13 +7622,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>78</v>
@@ -7827,16 +7650,16 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7886,7 +7709,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7918,10 +7741,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7944,13 +7767,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7974,7 +7797,7 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>78</v>
@@ -8001,7 +7824,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8033,21 +7856,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8059,13 +7882,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>250</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8116,13 +7939,13 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
@@ -8131,27 +7954,27 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8159,10 +7982,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8174,13 +7997,13 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>316</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8231,34 +8054,34 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>253</v>
+        <v>392</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55">
@@ -8277,7 +8100,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8289,13 +8112,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8334,35 +8157,37 @@
         <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8379,13 +8204,11 @@
         <v>402</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8404,16 +8227,16 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="N56" t="s" s="2">
-        <v>407</v>
+        <v>182</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8463,7 +8286,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8472,7 +8295,7 @@
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>140</v>
@@ -8481,7 +8304,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8495,42 +8318,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8551,7 +8378,7 @@
         <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
         <v>78</v>
@@ -8578,25 +8405,25 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8610,14 +8437,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8633,18 +8460,20 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8669,13 +8498,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8693,7 +8522,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8708,27 +8537,27 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8748,16 +8577,16 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>251</v>
+        <v>421</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>252</v>
+        <v>422</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8808,7 +8637,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>253</v>
+        <v>419</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8820,30 +8649,30 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>236</v>
+        <v>423</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>78</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8854,7 +8683,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8863,16 +8692,16 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>135</v>
+        <v>428</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>136</v>
+        <v>429</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8899,52 +8728,52 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>78</v>
+        <v>431</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>256</v>
+        <v>427</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8955,14 +8784,12 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8983,17 +8810,15 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>420</v>
+        <v>292</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9042,19 +8867,19 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9074,10 +8899,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9088,7 +8913,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9097,20 +8922,18 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>424</v>
+        <v>135</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9147,37 +8970,35 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>427</v>
+        <v>232</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9191,12 +9012,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9214,19 +9037,19 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>103</v>
+        <v>437</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9252,13 +9075,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>433</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9276,25 +9099,25 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>436</v>
+        <v>232</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9308,10 +9131,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9331,20 +9154,18 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9393,7 +9214,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>441</v>
+        <v>371</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9405,13 +9226,13 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9436,7 +9257,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>89</v>
@@ -9451,7 +9272,7 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>444</v>
@@ -9459,9 +9280,7 @@
       <c r="M65" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="N65" t="s" s="2">
-        <v>446</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9486,13 +9305,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9510,10 +9329,10 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>89</v>
@@ -9528,24 +9347,24 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>132</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>78</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9553,11 +9372,11 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9568,13 +9387,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9625,42 +9444,42 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH66" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>452</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>454</v>
+        <v>212</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>456</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9671,7 +9490,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9683,15 +9502,17 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>250</v>
+        <v>452</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>251</v>
+        <v>456</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9740,25 +9561,25 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>253</v>
+        <v>455</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>236</v>
+        <v>459</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9767,1052 +9588,7 @@
         <v>78</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C69" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="D69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>509</v>
       </c>
     </row>
   </sheetData>
